--- a/medicine/Mort/Cimetière_teutonique/Cimetière_teutonique.xlsx
+++ b/medicine/Mort/Cimetière_teutonique/Cimetière_teutonique.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Cimeti%C3%A8re_teutonique</t>
+          <t>Cimetière_teutonique</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Le cimetière teutonique ou cimetière des Allemands incl. des Flamands (en italien, Campo Santo dei Teutonici e dei Fiamminghi) est un groupement de sépultures catholiques situé au Vatican, mais faisant partie du quartier du Borgo à Rome en Italie.
 </t>
@@ -493,7 +505,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Cimeti%C3%A8re_teutonique</t>
+          <t>Cimetière_teutonique</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -511,7 +523,9 @@
           <t>Situation</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Il est officiellement rattaché à l'église Santa Maria della Pietà in Camposanto dei Teutonici. Le cimetière germanique est en partie situé dans une zone adjacente à la frontière entre le Vatican et Rome et fait l'objet d'extraterritorialité en faveur du Saint-Siège, car son seul accès se fait par le Vatican. Malgré cela, il s'agit du seul cimetière implanté dans la Cité du Vatican. Le site appartenait à la Schola Francorum, un hospice pour les pèlerins allemands qui était l'une des plus anciennes institutions allemandes à Rome. Les personnes ensevelies sont originaires d'Autriche, du Tyrol du Sud, d'Allemagne, de Suisse, du Liechtenstein, du Luxembourg et de Belgique, notamment des Flamands.
 </t>
@@ -524,7 +538,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Cimeti%C3%A8re_teutonique</t>
+          <t>Cimetière_teutonique</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -542,7 +556,9 @@
           <t>Histoire</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">Le cimetière teutonique est situé à proximité de la basilique Saint-Pierre et de la salle Paul VI et est considéré comme le plus ancien cimetière allemand de Rome. La zone est entourée par un haut mur entourant le cimetière où se trouvait autrefois le cirque de Néron, un lieu symbolique où de nombreux martyrs au cours du proto-christianisme ont été martyrisés. C'est probablement à cette époque que pourrait remonter la première utilisation du site comme lieu de sépulture. En 799, la Schola Francorum est fondée par Charlemagne.
 En 1450, des sources écrites indiquent que l'église et le cimetière teutonique sont en mauvais état et qu'il est donc nécessaire, en vue de l'année jubilaire, de faire des travaux de rénovation et de reconstruction. En 1454, des membres d'origine allemande de la Curie romaine donnent des fonds pour la reconstruction totale. En 1597, la Confrérie de Notre-Dame est fondée avec pour tâche d'administrer le cimetière. En 1876, non loin du lieu sacré, une résidence est construite pour les étudiants allemands intéressés par l'histoire ecclésiastique et l'archéologie sacrée. En 1888 enfin, une bibliothèque comprenant 35 000 livres est créée.
@@ -559,7 +575,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Cimeti%C3%A8re_teutonique</t>
+          <t>Cimetière_teutonique</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -577,7 +593,9 @@
           <t>Personnes enterrées</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t>Joseph Anton Koch, peintre paysagiste (1839)
 Charlotte-Frédérique de Mecklembourg-Schwerin, princesse du Danemark (1840)
@@ -599,8 +617,8 @@
 Rolf Schott, historien des arts (1977)
 Hubert Jedin, prêtre historien et théologien allemand, enterré à Bonn (1980) ; une plaque est apposée plus tard ici en sa mémoire (il était aussi recteur du cimetière)
 Sœur Pascalina Lehnert, secrétaire et aide-soignante du pape Pie XII (1983)
-Willy Herteleer (mort en 2015)[1] et Cesar Willy De Vroe (mort en 2018)[2], deux sans-abris d'origine belge sont enterrés dans ce cimetière.
-Karl-Josef Rauber (1934-2023), cardinal, nonce apostolique, président de l'Académie pontificale ecclésiastique est enterré avec ses parents[3],[4]</t>
+Willy Herteleer (mort en 2015) et Cesar Willy De Vroe (mort en 2018), deux sans-abris d'origine belge sont enterrés dans ce cimetière.
+Karl-Josef Rauber (1934-2023), cardinal, nonce apostolique, président de l'Académie pontificale ecclésiastique est enterré avec ses parents,</t>
         </is>
       </c>
     </row>
